--- a/summer_2019_edited_csv/Copy of Cable_1923_table2.xlsx
+++ b/summer_2019_edited_csv/Copy of Cable_1923_table2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\summer_2019_edited_csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Documents\GitHub\Freshwater-Fish-Diet-Database\summer_2019_edited_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74F1D69-4CF8-44D8-8B2C-5462005A0C3B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C20E78-96C3-4567-9D7A-FE4707E7C858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-216" yWindow="1128" windowWidth="17280" windowHeight="8976" xr2:uid="{BC045E0D-F033-461A-BF8C-6AFF356DB6CB}"/>
+    <workbookView xWindow="5304" yWindow="3252" windowWidth="17280" windowHeight="8964" xr2:uid="{BC045E0D-F033-461A-BF8C-6AFF356DB6CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
